--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:A442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,6 +643,2006 @@
         <v>-95.71556854248047</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-122.8140029907227</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>-101.0320892333984</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>-93.31310272216797</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>-100.081916809082</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>-117.4836654663086</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>-110.4054107666016</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>-106.9822845458984</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>-90.46982574462891</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>-107.082145690918</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>-104.1682434082031</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>-102.2485961914062</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>-89.11216735839844</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>-111.2197723388672</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>-106.6407623291016</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>-86.16641235351562</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>-103.6370544433594</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>-102.0648040771484</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>-117.2446670532227</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>-104.9085922241211</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>-115.8122634887695</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>-91.90163421630859</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>-105.4385528564453</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>-98.57434844970703</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>-102.4922866821289</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>-114.1448440551758</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>-89.29916381835938</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>-91.70329284667969</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>-98.71308898925781</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>-102.4882202148438</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>-106.6663513183594</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>-88.19371032714844</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>-105.809684753418</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>-103.4120101928711</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>-98.68590545654297</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>-113.6544723510742</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>-92.56490325927734</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>-106.0800170898438</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>-110.796012878418</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>-95.54751586914062</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>-96.08196258544922</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>-96.75138854980469</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>-107.5637664794922</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>-131.9779357910156</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>-108.3259201049805</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>-108.8032302856445</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>-102.8344345092773</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>-99.82251739501953</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>-93.60020446777344</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>-98.11058807373047</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>-103.4200210571289</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>-109.8538284301758</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>-113.0391006469727</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>-101.9193344116211</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>-109.0822067260742</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>-97.98036956787109</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>-113.6840133666992</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>-101.923225402832</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>-105.1332931518555</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>-110.3769226074219</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>-107.9024810791016</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>-107.0110931396484</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>-93.34532928466797</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>-96.16175842285156</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>-95.57418823242188</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>-92.64707183837891</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>-124.0160446166992</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>-109.2097396850586</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>-107.3484115600586</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>-106.882698059082</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>-98.60282897949219</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>-118.7961883544922</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>-122.8200378417969</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>-113.6296157836914</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>-116.5878524780273</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>-98.54307556152344</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>-101.203742980957</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>-104.4500579833984</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>-98.92710876464844</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>-117.7114715576172</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>-101.1471862792969</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>-93.62490081787109</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>-102.7579116821289</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>-86.48259735107422</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>-120.1099243164062</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>-96.90187835693359</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>-109.2751388549805</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>-120.882209777832</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>-109.0735931396484</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>-105.5012893676758</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>-113.7042388916016</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>-99.12036895751953</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>-115.8596420288086</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>-103.714958190918</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>-106.7576599121094</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>-108.0099792480469</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>-103.6857833862305</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>-113.4883575439453</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>-107.6009216308594</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>-115.7736358642578</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>-104.8279418945312</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>-101.4988708496094</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>-101.1754989624023</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>-94.17843627929688</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>-105.6647644042969</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>-98.21707153320312</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>-99.81643676757812</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>-111.0265426635742</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>-114.7546081542969</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>-113.0657043457031</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>-103.3026885986328</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>-114.7353820800781</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>-104.386833190918</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>-99.00658416748047</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>-119.4815444946289</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>-102.6641616821289</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>-123.2645721435547</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>-109.8799819946289</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>-92.90781402587891</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>-118.1902313232422</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>-107.5842971801758</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>-101.4455871582031</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>-112.7613983154297</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>-94.93438720703125</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>-104.8608627319336</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>-95.16981506347656</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>-92.48601531982422</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>-88.66928863525391</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>-94.73602294921875</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>-101.3164138793945</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>-109.5854187011719</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>-111.0251388549805</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>-106.0958557128906</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>-105.8699722290039</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>-108.751106262207</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>-96.80120086669922</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>-112.631462097168</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>-115.7984161376953</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>-94.00319671630859</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>-113.3769149780273</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>-98.10185241699219</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>-103.8878326416016</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>-103.4612503051758</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>-109.964241027832</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>-107.6168975830078</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>-102.0232543945312</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>-111.8840255737305</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>-105.6683807373047</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>-114.6940460205078</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>-106.2063293457031</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>-100.8243942260742</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>-119.8452911376953</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>-108.089958190918</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>-123.655876159668</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>-114.2568664550781</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>-109.009895324707</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>-115.4427032470703</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>-114.3136215209961</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>-90.08969116210938</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>-111.549430847168</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>-125.8420715332031</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>-98.12471771240234</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>-96.09113311767578</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>-108.8067169189453</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>-97.38814544677734</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>-103.6716003417969</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>-97.14117431640625</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>-114.9950485229492</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>-100.5209655761719</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>-124.2924423217773</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>-107.8228607177734</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>-108.2451782226562</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>-99.9658203125</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>-101.1167755126953</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>-92.59367370605469</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>-115.2823791503906</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>-112.3526916503906</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>-101.4116973876953</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>-103.8817291259766</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>-117.4550704956055</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>-102.6619567871094</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>-103.422004699707</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>-107.233757019043</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>-102.3631057739258</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>-105.4416885375977</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>-106.592399597168</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>-96.49613189697266</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>-123.5251770019531</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>-106.4046020507812</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>-101.6811904907227</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>-105.8223037719727</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>-105.869255065918</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>-116.469612121582</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>-105.6046295166016</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>-92.75181579589844</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>-87.84138488769531</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>-109.562858581543</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>-89.07164001464844</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>-104.6399841308594</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>-101.0109939575195</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>-106.5526885986328</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>-118.1690979003906</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>-112.1902236938477</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>-110.8911209106445</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>-113.3163833618164</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>-102.2917098999023</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>-104.8333587646484</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>-95.52053833007812</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>-110.3720779418945</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>-93.06298065185547</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>-100.33740234375</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>-111.7982406616211</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>-105.1264266967773</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>-105.8230056762695</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>-105.3498306274414</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>-110.314826965332</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>-109.138786315918</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>-107.4977569580078</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>-112.7932434082031</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>-121.8259201049805</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>-98.41329193115234</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>-89.76806640625</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>-114.4605255126953</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>-108.1499481201172</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>-91.20372009277344</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>-94.91455841064453</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>-106.329475402832</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>-110.7219924926758</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>-101.3728942871094</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>-109.0688781738281</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>-113.9051361083984</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>-114.238166809082</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>-123.6985549926758</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>-103.5995483398438</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>-110.8028335571289</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>-102.9051361083984</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>-86.84462738037109</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>-113.4514923095703</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>-99.12877655029297</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>-106.7046127319336</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>-98.07981109619141</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>-89.04269409179688</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>-109.9818267822266</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>-105.4758377075195</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>-95.13896179199219</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>-112.3176727294922</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>-126.2686538696289</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>-107.8791809082031</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>-95.98786926269531</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>-96.36991882324219</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>-105.8798065185547</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>-115.5010528564453</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>-109.8025894165039</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>-105.9334411621094</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>-98.06490325927734</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>-101.5820693969727</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>-105.4316177368164</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>-100.4576721191406</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>-113.9274444580078</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>-122.7420120239258</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>-104.54345703125</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>-118.56689453125</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>-74.91180419921875</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>-94.75621032714844</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>-105.5523071289062</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>-97.79359436035156</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>-111.9780349731445</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>-94.97502136230469</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>-95.995849609375</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>-111.2689514160156</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>-89.09539794921875</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>-97.80590057373047</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>-92.68144226074219</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>-111.9103088378906</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>-119.641227722168</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>-113.25927734375</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>-108.2614822387695</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>-100.1289138793945</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>-116.6766204833984</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>-113.6657257080078</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>-99.06394195556641</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>-111.6632614135742</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>-109.9831237792969</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>-96.02550506591797</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>-107.0479888916016</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>-106.1557006835938</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>-99.97038269042969</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>-112.489875793457</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>-118.1207580566406</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>-108.9512405395508</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>-120.1719512939453</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>-110.584358215332</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>-98.78877258300781</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>-99.23189544677734</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>-116.9106826782227</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>-94.14728546142578</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>-92.34445190429688</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>-115.0179290771484</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>-106.1481704711914</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>-118.3756942749023</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>-121.3977508544922</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>-99.57211303710938</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>-107.1474227905273</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>-97.05213165283203</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>-115.0345764160156</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>-104.9887008666992</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>-111.358528137207</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>-116.2004089355469</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>-95.40537261962891</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>-107.0739974975586</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>-104.362174987793</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>-107.6459579467773</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>-93.27518463134766</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>-100.5239028930664</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>-122.0850524902344</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>-97.79636383056641</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>-93.65090179443359</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>-90.68769836425781</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>-100.0840072631836</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>-107.7723846435547</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>-113.4446487426758</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>-101.6015014648438</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>-102.5063095092773</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>-103.3203811645508</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>-89.36277008056641</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>-108.0131149291992</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>-111.5527572631836</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>-115.4532241821289</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>-104.6133193969727</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>-111.8576278686523</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>-104.8523025512695</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>-102.8928146362305</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>-102.6375427246094</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>-88.47845458984375</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>-117.3102569580078</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>-98.23067474365234</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>-111.4155044555664</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>-94.20137786865234</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>-109.1687316894531</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>-91.71952819824219</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>-96.35282897949219</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>-115.3888931274414</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>-98.47087860107422</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>-110.6137771606445</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>-118.0001983642578</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>-105.8882904052734</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>-102.3307113647461</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>-96.74765777587891</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>-112.8390426635742</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>-96.55269622802734</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>-104.3843536376953</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>-109.1861114501953</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>-108.5572662353516</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>-104.8577728271484</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>-110.7504119873047</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>-104.6893005371094</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>-112.7665939331055</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>-103.5090408325195</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>-110.1897277832031</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>-107.4975509643555</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>-103.7115173339844</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>-108.6006240844727</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>-98.56550598144531</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>-99.11814117431641</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>-107.0338439941406</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>-101.9630432128906</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>-106.0608825683594</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>-90.86074829101562</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>-97.29453277587891</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>-98.81967163085938</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>-114.0170440673828</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>-110.484733581543</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>-104.092399597168</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>-120.9347686767578</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>-105.0624771118164</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>-116.3580627441406</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>-101.6960372924805</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>-111.9832611083984</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>-116.9213104248047</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>-94.27127075195312</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>-123.9128189086914</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>-105.6100845336914</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>-95.46246337890625</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>-101.0224304199219</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>-90.10721588134766</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>-99.20400238037109</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>-91.42744445800781</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>-93.006103515625</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>-125.9306259155273</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>-96.57994079589844</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>-100.2274017333984</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>-122.4547424316406</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>-118.2928009033203</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>-106.7681427001953</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>-89.70015716552734</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>-103.4044799804688</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>-106.3419952392578</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>-110.3991012573242</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>-100.6864624023438</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>-109.7239227294922</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>-110.4254302978516</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A972"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,7 +440,4857 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-101.9532165527344</v>
+        <v>-2.25102162361145</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.899453639984131</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-1.759432077407837</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-1.723155856132507</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-1.664339542388916</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-1.73584258556366</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-1.676211833953857</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-1.578898668289185</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-1.631961703300476</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-1.59233546257019</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-1.55405056476593</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-1.529702663421631</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>-1.478907108306885</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-1.503924250602722</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-1.51437771320343</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-1.553499579429626</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-1.424594521522522</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-1.373863220214844</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-1.382684350013733</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>-1.549262523651123</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-1.603891611099243</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-1.340141892433167</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-1.463968396186829</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-1.363932609558105</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-1.360345959663391</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-1.314378380775452</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-1.289463758468628</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-1.24158239364624</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-1.35752284526825</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-1.19394063949585</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-1.209911942481995</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-1.188459277153015</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-1.226840853691101</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-1.217430591583252</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-1.186970353126526</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-1.239669919013977</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-1.137492656707764</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-1.191965937614441</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-1.14972186088562</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-1.074798464775085</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-1.273979306221008</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-1.228476524353027</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>-1.291642904281616</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>-1.215265154838562</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>-1.249841332435608</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>-1.326952695846558</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>-1.31126070022583</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>-1.134666919708252</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>-1.144533514976501</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>-0.8138658404350281</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>-0.9222302436828613</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>-1.025583624839783</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>-1.169559001922607</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>-1.249470710754395</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>-1.195878386497498</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>-1.133656978607178</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>-1.131719827651978</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>-1.194190502166748</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>-1.134939789772034</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>-1.195050835609436</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>-1.22817051410675</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>-1.284301400184631</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>-1.054511904716492</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>-1.125326633453369</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>-1.24202299118042</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>-1.147400617599487</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>-1.181331396102905</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>-1.315996050834656</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>-1.216393709182739</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>-1.167810559272766</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>-1.132240414619446</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>-1.109975934028625</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>-1.197561025619507</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>-1.266716718673706</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>-1.29143238067627</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>-1.323189973831177</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>-1.327475905418396</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>-1.272966265678406</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>-1.347250938415527</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>-1.267567157745361</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>-1.250927686691284</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>-1.190007448196411</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>-1.164672136306763</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>-1.190379619598389</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>-1.260629534721375</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>-1.29982316493988</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>-1.288287401199341</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>-1.190098166465759</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>-1.16787576675415</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>-1.211015582084656</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>-1.18060040473938</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>-1.228173494338989</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>-1.208265066146851</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>-1.048001766204834</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>-1.21791660785675</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>-1.159043550491333</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>-1.2682785987854</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>-1.16838002204895</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>-1.066365480422974</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>-1.082727789878845</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>-1.054675102233887</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>-1.049444317817688</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>-0.9872856140136719</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>-1.030846238136292</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>-1.188052535057068</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>-1.149277210235596</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>-1.113401889801025</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>-1.120740175247192</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>-1.21319043636322</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>-1.083280086517334</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>-0.975501537322998</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>-0.9698696732521057</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>-1.040024042129517</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>-1.125102519989014</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>-1.288992047309875</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>-1.144810318946838</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>-1.107653856277466</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>-1.156347393989563</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>-1.160873293876648</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>-1.079856514930725</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>-1.06305193901062</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>-1.014166355133057</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>-1.067399024963379</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>-0.9625728726387024</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>-0.9568713307380676</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>-0.8985595703125</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>-0.8474422693252563</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>-0.8181477189064026</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>-0.822761595249176</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>-0.7990090847015381</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>-0.7730919122695923</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>-0.8845342397689819</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>-0.740201473236084</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>-0.7150824666023254</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>-0.7479746341705322</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>-0.6877443194389343</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>-0.7431043982505798</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>-0.8211298584938049</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>-0.8844470381736755</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>-0.7948521971702576</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>-0.8057276010513306</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>-0.8131921887397766</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>-0.844184398651123</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>-0.8136675357818604</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>-0.697063148021698</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>-0.676291823387146</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>-0.6261074542999268</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>-0.6347178816795349</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>-0.6652891635894775</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>-0.6837567090988159</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>-0.6355615258216858</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>-0.7043493390083313</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>-0.677521288394928</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>-0.653667151927948</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>-0.6324775815010071</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>-0.6356824636459351</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>-0.6261499524116516</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>-0.6231653094291687</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>-0.6292133927345276</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>-0.6250119209289551</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>-0.6570123434066772</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>-0.7055830359458923</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>-0.6857947707176208</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>-0.6627074480056763</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>-0.7251061797142029</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>-0.8013014197349548</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>-0.8212931752204895</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>-0.8657141327857971</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>-0.8124359250068665</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>-0.5822210907936096</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>-0.6293195486068726</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>-0.6594354510307312</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>-0.6745343804359436</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>-0.7308387756347656</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>-0.6505205631256104</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>-0.673981249332428</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>-0.6727259755134583</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>-0.7165502309799194</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>-0.7021988034248352</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>-0.7470341324806213</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>-0.7005847692489624</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>-0.7714370489120483</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>-0.7570675015449524</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>-0.774096667766571</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>-0.7699548602104187</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>-0.7455164194107056</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>-0.7534235119819641</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>-0.7648359537124634</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>-0.7029669284820557</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>-0.7856929302215576</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>-0.7844170928001404</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>-0.7509202361106873</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>-0.7665773034095764</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>-0.8111583590507507</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>-0.8874204754829407</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>-0.9464409351348877</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>-0.8996939063072205</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>-0.923637866973877</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>-0.847195029258728</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>-0.7795106768608093</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>-0.7963278293609619</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>-0.7807719707489014</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>-0.806510329246521</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>-0.8091302514076233</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>-0.8424261212348938</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>-0.8317590355873108</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>-0.8058850169181824</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>-0.8046852350234985</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>-0.7849495410919189</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>-0.9081831574440002</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>-0.8050675392150879</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>-0.901444673538208</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>-0.9884775280952454</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>-1.024443507194519</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>-0.9442917704582214</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>-0.93889981508255</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>-0.9376770257949829</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>-0.8779196739196777</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>-0.9815815091133118</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>-0.867838442325592</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>-0.876828670501709</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>-0.9052392840385437</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>-0.8602645993232727</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>-0.8502956628799438</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>-0.9589942097663879</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>-0.9554020762443542</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>-0.9390419125556946</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>-1.12404453754425</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>-1.07951831817627</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>-1.082603096961975</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>-1.070490717887878</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>-1.08143413066864</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>-1.098099112510681</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>-0.9812309741973877</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>-0.9612982273101807</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>-0.9502708315849304</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>-0.8231834173202515</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>-1.010562777519226</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>-0.962026059627533</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>-0.9307711720466614</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>-0.9253995418548584</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>-1.021702647209167</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>-1.011869072914124</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>-1.122060298919678</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>-1.037607073783875</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>-1.061748266220093</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>-1.040958285331726</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>-1.049019336700439</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>-1.107966661453247</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>-1.122254967689514</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>-1.080670356750488</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>-1.172908067703247</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>-1.198921322822571</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>-1.038689970970154</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>-1.125419616699219</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>-1.095086455345154</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>-1.06254506111145</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>-1.076945543289185</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>-1.09953236579895</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>-1.050041556358337</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>-1.179890155792236</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>-1.102498412132263</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>-1.184984922409058</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>-1.156015515327454</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>-1.094825387001038</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>-1.021402716636658</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>-1.111456751823425</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>-1.063160538673401</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>-1.036269426345825</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>-1.164306163787842</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>-1.240632772445679</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>-1.284636735916138</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>-1.336217045783997</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>-1.272501945495605</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>-1.196993827819824</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>-1.328346967697144</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>-1.283539533615112</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>-1.288385152816772</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>-1.093672037124634</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>-1.246440410614014</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>-1.229584932327271</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>-1.243387699127197</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>-1.331949472427368</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>-1.249242305755615</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>-1.077864170074463</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>-1.061416506767273</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>-1.132153987884521</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>-1.173080921173096</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>-1.257652878761292</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>-1.17429792881012</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>-1.119821190834045</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>-1.154280424118042</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>-1.287098407745361</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>-1.297338128089905</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>-1.384824275970459</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>-1.301280856132507</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>-1.276071310043335</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>-1.235504508018494</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>-1.25886082649231</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>-1.420823931694031</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>-1.348804473876953</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>-1.305200219154358</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>-1.401650428771973</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>-1.25656795501709</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>-1.315526604652405</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>-1.308697462081909</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>-1.045976638793945</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>-1.183332920074463</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>-1.196234941482544</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>-1.158128261566162</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>-1.095123767852783</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>-0.9513024091720581</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>-0.9077455401420593</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>-0.8514941334724426</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>-0.9591041803359985</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>-0.9508497714996338</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>-0.7214457988739014</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>-0.725049614906311</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>-0.8429067134857178</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>-0.7380145192146301</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>-0.8966647386550903</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>-0.7862260341644287</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>-0.7646257281303406</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>-0.7776789665222168</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>-0.846516489982605</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>-0.8746190071105957</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>-0.9027604460716248</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>-0.9284372925758362</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>-0.8834590315818787</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>-1.01080858707428</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>-0.8233931064605713</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>-0.8738775849342346</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>-0.7872474193572998</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>-0.7717616558074951</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>-0.8366325497627258</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>-0.8647670149803162</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>-0.9293948411941528</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>-1.072428703308105</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>-1.025774598121643</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>-1.11710262298584</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>-1.19811749458313</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>-1.332353830337524</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>-1.296354651451111</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>-1.374839782714844</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>-1.493170499801636</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>-1.468509316444397</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>-1.166205406188965</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>-1.23502779006958</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>-1.294155597686768</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>-1.332750201225281</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>-1.359248995780945</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>-1.442012071609497</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>-1.495380759239197</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>-1.4218670129776</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>-1.505154848098755</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>-1.413300752639771</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>-1.276136159896851</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>-1.231308460235596</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>-1.17259669303894</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>-1.293720722198486</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>-1.078486561775208</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>-1.129953503608704</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>-1.043583035469055</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>-1.037282109260559</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>-1.013764500617981</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>-0.9252793192863464</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>-1.040011286735535</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>-1.071833372116089</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>-1.045523524284363</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>-1.108875155448914</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>-1.097222566604614</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>-0.8937647938728333</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>-1.02998673915863</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>-1.028621077537537</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>-0.9553213715553284</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>-0.8605883717536926</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>-0.8315293788909912</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>-0.9025698900222778</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>-0.9634077548980713</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>-0.9589953422546387</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>-0.8738863468170166</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>-0.8921800255775452</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>-0.9758883714675903</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>-0.8497341871261597</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>-0.862723171710968</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>-0.6859686970710754</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>-0.7104078531265259</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>-0.728165864944458</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>-0.7469021677970886</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>-0.7787545919418335</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>-0.8519914746284485</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>-0.729705274105072</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>-0.7824546694755554</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>-0.8033299446105957</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>-0.8299639821052551</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>-0.8144285678863525</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>-0.7935493588447571</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>-0.8640875220298767</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>-0.9487459659576416</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>-1.028357744216919</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>-0.9600023031234741</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>-0.9598445296287537</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>-0.8628578186035156</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>-1.038535952568054</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>-0.974762499332428</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>-0.9059140086174011</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>-1.069777250289917</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>-1.140802264213562</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>-1.052064657211304</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>-1.055956244468689</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>-1.112190961837769</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>-1.065675616264343</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>-1.190333843231201</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>-1.089007258415222</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>-1.073864817619324</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>-0.9990784525871277</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>-1.018914937973022</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>-1.091872215270996</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>-1.187548875808716</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>-1.211066722869873</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>-1.171251654624939</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>-1.192939639091492</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>-1.172224879264832</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>-0.9777989983558655</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>-1.107065677642822</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>-1.148386836051941</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>-1.137308597564697</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>-1.203114986419678</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>-1.297707557678223</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>-1.271686911582947</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>-1.370494723320007</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>-1.400660395622253</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>-1.396963238716125</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>-1.393091917037964</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>-1.31903600692749</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>-1.355687618255615</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>-1.549419522285461</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>-1.330806136131287</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>-1.379263162612915</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>-1.434666752815247</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>-1.450677514076233</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>-1.378639340400696</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>-1.368233203887939</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>-1.327795743942261</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>-1.265294909477234</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>-1.282901883125305</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>-1.248524785041809</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>-1.105396628379822</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>-0.9744213819503784</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>-1.036900758743286</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>-1.166349649429321</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>-1.254459977149963</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>-1.205540180206299</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>-1.315066337585449</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>-1.439665675163269</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>-1.423209071159363</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>-1.469470381736755</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>-1.55915892124176</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>-1.531489253044128</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>-1.623961448669434</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>-1.753241896629333</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>-1.828716993331909</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>-1.808348417282104</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>-1.548025488853455</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>-1.441889643669128</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>-1.355847597122192</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>-1.453676700592041</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>-1.591559290885925</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>-1.568031430244446</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>-1.531310439109802</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>-1.389126300811768</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>-1.1608966588974</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>-1.197481036186218</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>-1.111929893493652</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>-1.024226784706116</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>-1.071674466133118</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>-1.022279977798462</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>-0.9563479423522949</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>-0.765817403793335</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>-0.766071617603302</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>-0.8033955097198486</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>-0.8572741746902466</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>-0.8961582183837891</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>-0.913774311542511</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>-1.065818667411804</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>-1.01057755947113</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>-0.8590145707130432</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>-0.9082849025726318</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>-0.9061047434806824</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>-0.8509078025817871</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>-0.9084305763244629</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>-0.9420830011367798</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>-0.9091732501983643</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>-0.9917303323745728</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>-0.7698764801025391</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>-0.8463740348815918</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>-0.8771249651908875</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>-0.820518434047699</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>-0.8212574124336243</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>-0.7830009460449219</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>-0.87571120262146</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>-0.9230117201805115</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>-1.033257365226746</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>-0.8787441849708557</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>-0.8808356523513794</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>-0.8476973176002502</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>-1.009535670280457</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>-0.8671051263809204</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>-0.9488086104393005</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>-0.8658716082572937</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>-0.8982401490211487</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>-1.104661822319031</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>-1.266925692558289</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>-1.082582354545593</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>-1.109676241874695</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>-1.327009439468384</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>-1.570622086524963</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>-1.300296306610107</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>-1.322645306587219</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>-1.516303062438965</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>-1.650259375572205</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>-1.498671531677246</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>-1.358977079391479</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>-1.717467069625854</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>-1.449280500411987</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>-1.518889307975769</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>-1.61885941028595</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>-1.533592104911804</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>-1.76971960067749</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>-1.560501098632812</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>-1.632797718048096</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>-1.88348662853241</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>-1.711219906806946</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>-1.249770164489746</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>-1.338537573814392</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>-1.281071424484253</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>-1.367505311965942</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>-1.45611584186554</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>-1.643532395362854</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>-1.642870426177979</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>-1.684706687927246</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>-1.773650765419006</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>-1.689627647399902</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>-1.837894320487976</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>-2.01655101776123</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>-1.917697429656982</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>-2.219847917556763</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>-2.094766139984131</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>-2.472110271453857</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>-2.085858345031738</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>-2.935067176818848</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>-3.374844312667847</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>-3.85010814666748</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>-3.037848234176636</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>-2.714435338973999</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>-2.69950795173645</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>-3.074555158615112</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>-3.756336450576782</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>-3.372005701065063</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>-3.581259727478027</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>-3.132396221160889</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>-3.371374607086182</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>-3.185599565505981</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>-3.486753463745117</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>-3.657714128494263</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>-4.278174877166748</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>-4.400291919708252</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>-4.121456623077393</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>-3.869695663452148</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>-3.99156928062439</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>-4.206542491912842</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>-4.825675487518311</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>-5.460842132568359</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>-5.988552093505859</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>-6.669196605682373</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>-6.075692176818848</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>-5.576895236968994</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>-6.102131366729736</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>-6.120574951171875</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>-6.572623252868652</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>-6.104559898376465</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>-5.497233390808105</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>-6.607134819030762</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>-5.838342189788818</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>-5.520047187805176</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>-6.58257007598877</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>-7.096847057342529</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>-7.028152942657471</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>-6.583648681640625</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>-6.136794567108154</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>-5.64360237121582</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>-5.246398448944092</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>-5.542293548583984</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>-6.555402755737305</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>-7.125384330749512</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>-7.228619575500488</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>-6.963444709777832</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>-7.602684497833252</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>-7.470145702362061</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>-7.487888813018799</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>-7.533887386322021</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>-7.953680515289307</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>-8.633664131164551</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>-7.911700248718262</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>-8.282842636108398</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>-8.415011405944824</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>-8.379123687744141</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>-9.001627922058105</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>-9.028365135192871</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>-8.398558616638184</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>-8.037574768066406</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>-7.775798320770264</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>-8.212933540344238</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>-9.967092514038086</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>-9.904925346374512</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>-9.287419319152832</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>-8.867337226867676</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>-8.750173568725586</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>-8.214605331420898</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>-7.901473522186279</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>-8.082144737243652</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>-7.947265148162842</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>-7.251940727233887</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>-7.788932323455811</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>-7.746004104614258</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>-8.183390617370605</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>-8.285297393798828</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>-8.248872756958008</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>-9.852892875671387</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>-10.01503658294678</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>-9.748813629150391</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>-8.173866271972656</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>-8.465958595275879</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>-7.869649887084961</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>-8.534707069396973</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>-8.59465217590332</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>-9.081310272216797</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>-8.454007148742676</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>-8.161479949951172</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>-8.09333610534668</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>-9.018455505371094</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>-9.149178504943848</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>-8.507787704467773</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>-9.163412094116211</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>-9.018261909484863</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>-8.671222686767578</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>-8.103433609008789</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>-7.252282619476318</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>-6.852154731750488</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>-5.832495212554932</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>-7.565052032470703</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>-7.061283111572266</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>-7.321092128753662</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>-7.549705028533936</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>-7.736487865447998</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>-7.587020397186279</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>-8.286895751953125</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>-7.403537750244141</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>-6.48478889465332</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>-6.058809757232666</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>-6.188570976257324</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>-6.832332611083984</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>-6.61195182800293</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>-6.74703311920166</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>-8.109343528747559</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>-8.652701377868652</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>-8.413012504577637</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>-8.342599868774414</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>-9.107540130615234</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>-9.414048194885254</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>-8.699349403381348</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>-10.14703273773193</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>-10.26643753051758</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>-9.262887954711914</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>-8.675656318664551</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>-8.895626068115234</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>-7.494861602783203</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>-7.47124195098877</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>-7.127945423126221</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>-8.073184013366699</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>-8.530655860900879</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>-8.830547332763672</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>-8.780866622924805</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>-8.737822532653809</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>-7.901363372802734</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>-8.08648681640625</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>-8.929189682006836</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>-7.989053726196289</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>-9.103506088256836</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>-8.072728157043457</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>-7.752126693725586</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>-8.011237144470215</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>-9.029850959777832</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>-9.089829444885254</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>-8.595363616943359</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>-8.891153335571289</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>-9.290393829345703</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>-10.15618991851807</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>-9.807815551757812</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>-9.092571258544922</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>-8.625138282775879</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>-9.182539939880371</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>-10.08587551116943</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>-10.25092792510986</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>-10.93049907684326</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>-10.96094989776611</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>-9.969873428344727</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>-9.752372741699219</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>-8.987476348876953</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>-8.322015762329102</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>-8.522542953491211</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>-9.346334457397461</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>-9.440082550048828</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>-8.986056327819824</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>-8.794172286987305</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>-9.101230621337891</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>-8.196136474609375</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>-8.01632022857666</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>-8.201902389526367</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>-8.687172889709473</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>-7.8851318359375</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>-8.517817497253418</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>-9.100491523742676</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>-8.615021705627441</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>-8.205840110778809</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>-7.214590549468994</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>-8.625677108764648</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>-7.529242038726807</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>-8.310793876647949</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>-9.087250709533691</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>-9.768795013427734</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>-9.713503837585449</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>-9.628096580505371</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>-10.00137424468994</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>-10.16605758666992</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>-10.04886054992676</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>-9.682541847229004</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>-8.453686714172363</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>-8.177970886230469</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>-8.106559753417969</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>-7.991151809692383</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>-8.594313621520996</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>-8.460298538208008</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>-7.940781116485596</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>-7.264608383178711</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>-7.340242862701416</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>-7.723766326904297</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>-7.86958122253418</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>-7.672269344329834</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>-8.090998649597168</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>-8.155591011047363</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>-8.462440490722656</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>-7.794507026672363</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>-7.672217845916748</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>-7.92011833190918</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>-7.512530326843262</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>-7.828297138214111</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>-7.649895668029785</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>-7.557703971862793</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>-8.11944580078125</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>-7.644805908203125</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>-7.379336357116699</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>-6.798901557922363</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>-7.258328437805176</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>-7.136539459228516</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>-7.403965950012207</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>-7.351136684417725</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>-7.214165687561035</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>-7.382631778717041</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>-7.373544692993164</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>-7.689309120178223</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>-7.452270984649658</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>-7.034019947052002</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>-7.213775634765625</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>-6.996622085571289</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>-6.932457447052002</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>-6.908035755157471</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>-6.749593734741211</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>-6.708190441131592</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>-6.747504711151123</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>-6.7489914894104</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>-5.994769096374512</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>-6.911778450012207</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>-6.688921928405762</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>-6.850189685821533</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>-7.298206806182861</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>-7.132665634155273</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>-6.831784725189209</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>-6.960227012634277</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>-6.656146049499512</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>-6.564780235290527</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>-6.659689903259277</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>-6.303955078125</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>-6.235577583312988</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>-5.748021125793457</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>-5.329299926757812</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>-5.563482761383057</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>-5.509305000305176</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>-5.802065372467041</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>-5.989665031433105</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>-5.757174015045166</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>-5.853522300720215</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>-5.871320724487305</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>-5.204716682434082</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>-4.7757568359375</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>-5.570916175842285</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>-5.054719924926758</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>-5.19859504699707</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>-4.717003345489502</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>-4.938639640808105</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>-4.711452007293701</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>-5.070238590240479</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>-5.143142223358154</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>-5.33584451675415</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>-5.21930980682373</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>-5.269968032836914</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>-5.064032077789307</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>-4.976801872253418</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>-4.494133949279785</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>-4.367710113525391</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>-4.817470550537109</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>-4.417116641998291</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>-4.427748203277588</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>-4.432140350341797</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>-4.325702667236328</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>-4.512244701385498</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>-4.474750995635986</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>-4.531023979187012</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>-4.702917575836182</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>-4.662569999694824</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>-4.747081279754639</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>-4.614218235015869</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>-4.815142154693604</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>-4.328821182250977</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>-4.220734119415283</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>-4.443811893463135</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>-4.158737182617188</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>-4.174710750579834</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>-4.422547817230225</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>-4.527270317077637</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>-4.767951488494873</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>-4.958277702331543</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>-5.136685848236084</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>-5.051594734191895</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>-5.077146530151367</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>-4.653089046478271</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>-4.933168411254883</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>-4.848158359527588</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>-4.554017543792725</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>-4.83373498916626</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>-5.157205581665039</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>-4.390768527984619</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>-4.581002712249756</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>-4.896830558776855</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>-4.483272552490234</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>-4.310045719146729</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>-4.214458465576172</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>-3.491483688354492</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>-2.962963342666626</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>-2.464498519897461</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>-2.342581987380981</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>-1.487070441246033</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>-1.836657285690308</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>-1.582761287689209</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>-1.389443397521973</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>-1.188766837120056</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>-1.239490628242493</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>-1.327325463294983</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>-1.647921442985535</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>-1.240200996398926</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>-1.173750162124634</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>-1.393335580825806</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>-1.455872297286987</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>-1.505043983459473</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>-0.9452261328697205</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>-0.8904356360435486</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>-0.6644076704978943</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>-0.6981765627861023</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>-0.8553078174591064</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>-0.9388307332992554</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>-1.095286846160889</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>-1.042755722999573</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>-0.990927517414093</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>-1.28850269317627</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>-1.474801898002625</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>-1.64176344871521</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>-1.74064302444458</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>-1.565992712974548</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>-2.115309476852417</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>-2.068640232086182</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>-2.098036527633667</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>-2.581196308135986</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>-1.86745548248291</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>-2.198633193969727</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>-2.026989221572876</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>-2.00170111656189</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>-2.061285018920898</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>-1.476528644561768</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>-1.554011225700378</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>-1.823949575424194</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>-2.000920295715332</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>-1.980014681816101</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>-1.598863840103149</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>-1.13345468044281</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>-1.29739236831665</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>-1.282211303710938</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>-1.467169165611267</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>-1.304078936576843</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>-1.333271503448486</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>-1.275381922721863</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>-1.493912816047668</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>-1.591704368591309</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>-1.389922618865967</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>-1.103447675704956</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>-1.164351224899292</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>-1.263535022735596</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>-2.07917857170105</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>-1.708742618560791</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>-1.713010549545288</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>-1.631398797035217</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>-1.889804244041443</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>-1.347248554229736</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>-1.435308575630188</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>-1.396361589431763</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>-1.7316814661026</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>-2.034887075424194</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>-1.637888431549072</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>-1.507618308067322</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>-1.429722309112549</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>-1.2239590883255</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>-1.290535092353821</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>-1.398338198661804</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>-1.319983839988708</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>-1.311606764793396</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>-1.203204154968262</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>-1.110425472259521</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>-1.044134020805359</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>-0.9850543141365051</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>-0.8929165601730347</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>-1.03564977645874</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>-0.9782061576843262</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>-1.132656693458557</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>-0.9993477463722229</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>-1.205853223800659</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>-0.9726322889328003</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>-0.9344043731689453</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>-0.7192456722259521</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>-0.7956184148788452</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>-0.7357681393623352</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>-0.8485736846923828</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>-0.5663694739341736</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>-0.4157467782497406</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>-0.8061220049858093</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>-0.5351001620292664</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>-0.7089917659759521</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>-0.9791677594184875</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>-1.186275839805603</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>-1.286592721939087</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>-1.373433709144592</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>-1.624359846115112</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>-1.31041407585144</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>-1.430757761001587</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>-1.283881545066833</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>-1.277510523796082</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>-1.331308245658875</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>-1.127204537391663</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>-0.9839075207710266</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>-0.7970240712165833</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>-0.7650238275527954</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>-0.9025968313217163</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>-0.9575790166854858</v>
       </c>
     </row>
   </sheetData>
